--- a/data/trans_dic/P55_7-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55_7-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de teléfono</t>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,53%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +607,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>97,34%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,16; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,92; 100,0</t>
+          <t>84,27; 100,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93,51; 100,0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -606,7 +682,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +692,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>98,84%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,77; 100,0</t>
+          <t>88,83; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,23; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>94,37; 100,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -661,12 +767,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>97,96%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>99,11%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,78%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>99,5%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,12; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>94,89; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>97,63; 100,0</t>
+          <t>93,06; 100,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>95,43; 100,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>96,17; 100,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>97,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -711,12 +847,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>99,52%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,51; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,68; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,52; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 100,0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>97,76; 100,0</t>
         </is>
       </c>
     </row>
@@ -765,6 +931,21 @@
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>98,27; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>98,16; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>99,1; 100</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -811,12 +1007,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>98,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>98,81%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>97,61; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,34; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,89; 100,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>89,6; 100,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>93,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -856,17 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>99,11%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>99,26%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>99,35%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>99,62%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>98,49; 100,0</t>
+          <t>97,88; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>98,16; 99,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>98,72; 99,72</t>
+          <t>97,32; 99,79</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>97,46; 99,82</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>98,34; 99,8</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>98,77; 99,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de teléfono (tasa de respuesta: 99,53%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>127558</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>140757</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>113955</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>145497</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>241512</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>286253</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>98658; 117072</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>228755; 244629</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>148403</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>227693</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>126312</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>162374</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>274715</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>390067</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>134694; 151638</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>262310; 277950</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>135456</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>180255</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>194913</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>235408</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>330369</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>415664</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>185176; 198980</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>226657; 237514</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>321621; 334436</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>407368; 417770</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>156211</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>201412</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>167323</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>210768</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>323535</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>412180</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>198730; 212744</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>404877; 414156</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>123193</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>154648</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90565</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>137056</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>213758</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>291704</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>90133</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>137831</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>110607</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>200044</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>200740</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>337875</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>182890; 204122</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>319363; 341953</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>697.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>703.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>780954</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1042596</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>803675</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1091147</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1584629</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2133743</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>767587; 784189</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>789149; 809118</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1071392; 1097289</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1568573; 1591863</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2115525; 2139924</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>